--- a/viewmepro_dbschema.xlsx
+++ b/viewmepro_dbschema.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>product</t>
   </si>
@@ -62,27 +63,9 @@
     <t>Video_path</t>
   </si>
   <si>
-    <t>Landline_phone1</t>
-  </si>
-  <si>
-    <t>Landline_phone2</t>
-  </si>
-  <si>
-    <t>Mobile1</t>
-  </si>
-  <si>
-    <t>Mobile2</t>
-  </si>
-  <si>
     <t>Rating (1-5)</t>
   </si>
   <si>
-    <t>Votes</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -104,9 +87,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -116,10 +96,58 @@
     <t>emailid</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>Category/sub-category/userid/ID/Videos&amp;Photos</t>
+  </si>
+  <si>
+    <t>Once user login to website from Facebook login, Next time when he/she logs in to the facebook, we need to show the advertisement of our site with top rating products.</t>
+  </si>
+  <si>
+    <t>Implement Social login plugin</t>
+  </si>
+  <si>
+    <t>use LAMP</t>
+  </si>
+  <si>
+    <t>No Payment Gateway</t>
+  </si>
+  <si>
+    <t>Product_Contact Number</t>
+  </si>
+  <si>
+    <t>User_Contact Number</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK--&gt;Product.ID</t>
+  </si>
+  <si>
+    <t>Seq#</t>
+  </si>
+  <si>
+    <t>Main_Class</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Search_Product</t>
+  </si>
+  <si>
+    <t>Add_Product</t>
+  </si>
+  <si>
+    <t>Remove_Product</t>
+  </si>
+  <si>
+    <t>Update_Product</t>
+  </si>
+  <si>
+    <t>FrontEnd</t>
+  </si>
+  <si>
+    <t>Show Product based on location(maps)</t>
   </si>
 </sst>
 </file>
@@ -452,44 +480,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -497,13 +529,16 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -511,13 +546,16 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -525,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -539,10 +577,16 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -550,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -561,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -569,54 +613,93 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>